--- a/example_usage/suites/soaptest.xlsx
+++ b/example_usage/suites/soaptest.xlsx
@@ -5,19 +5,17 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felala\Desktop\DEMO\SOAP_Assertion\example_usage\suites\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\skorpu\Documents\feature\SprintTMO8\codeless_mastertestdata\example_usage\suites\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13176" windowHeight="6408" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13176" windowHeight="6408"/>
   </bookViews>
   <sheets>
     <sheet name="c-demo_ui" sheetId="2" r:id="rId1"/>
     <sheet name="t-soaptest" sheetId="9" r:id="rId2"/>
-    <sheet name="d-dataSheet" sheetId="10" r:id="rId3"/>
-    <sheet name="d-dev" sheetId="11" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="65">
   <si>
     <t>key</t>
   </si>
@@ -128,12 +126,6 @@
     <t>TRUE</t>
   </si>
   <si>
-    <t>Google.googlepage.searchbar</t>
-  </si>
-  <si>
-    <t>https://www.google.com/</t>
-  </si>
-  <si>
     <t>webdriver.platform.chrome</t>
   </si>
   <si>
@@ -191,42 +183,6 @@
     <t>POST</t>
   </si>
   <si>
-    <t>website</t>
-  </si>
-  <si>
-    <t>dummy.restapiexample.com</t>
-  </si>
-  <si>
-    <t>apiHost</t>
-  </si>
-  <si>
-    <t>/api/v1/create</t>
-  </si>
-  <si>
-    <t>apiPath</t>
-  </si>
-  <si>
-    <t>searchElement</t>
-  </si>
-  <si>
-    <t>https://www.bing.com/</t>
-  </si>
-  <si>
-    <t>searchBar</t>
-  </si>
-  <si>
-    <t>Google.googlepage.searchbutton</t>
-  </si>
-  <si>
-    <t>bing.yahoopage.searchbar</t>
-  </si>
-  <si>
-    <t>bing.yahoopage.searchbutton</t>
-  </si>
-  <si>
-    <t>https://bw.apix.plab.internal.t-mobile.com:443/service/soap/v2/CustomerManagement/ProvisionService</t>
-  </si>
-  <si>
     <t>assert::XMLPATH::senderId::isEqualTo::kuku</t>
   </si>
   <si>
@@ -248,9 +204,6 @@
     <t>dsg.activateSubscriber.{{host1}}</t>
   </si>
   <si>
-    <t>host1</t>
-  </si>
-  <si>
     <t>Activate request one</t>
   </si>
   <si>
@@ -258,6 +211,15 @@
   </si>
   <si>
     <t>Activate request three</t>
+  </si>
+  <si>
+    <t>testdata.filename</t>
+  </si>
+  <si>
+    <t>testdata.sheetname</t>
+  </si>
+  <si>
+    <t>testdata.xlsx</t>
   </si>
 </sst>
 </file>
@@ -350,7 +312,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -379,7 +341,6 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -661,10 +622,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -776,104 +737,117 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>35</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="9" t="s">
         <v>38</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B18" s="15"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" s="11" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -886,7 +860,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -938,64 +912,64 @@
     </row>
     <row r="3" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>25</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>25</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="D4" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="E4" s="13" t="s">
-        <v>67</v>
-      </c>
       <c r="F4" s="13" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>25</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="G5" s="5"/>
     </row>
@@ -1066,136 +1040,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="29.33203125" customWidth="1"/>
-    <col min="2" max="2" width="86" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="B1" s="16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>73</v>
-      </c>
-      <c r="B6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B1" s="16" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/example_usage/suites/soaptest.xlsx
+++ b/example_usage/suites/soaptest.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\skorpu\Documents\feature\SprintTMO8\codeless_mastertestdata\example_usage\suites\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mposlus1\Documents\GitHub\codeless\example_usage\suites\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DC7BE4E-9F04-4BED-A21D-315BA80D1093}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13176" windowHeight="6408"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13170" windowHeight="6405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="c-demo_ui" sheetId="2" r:id="rId1"/>
@@ -225,7 +226,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -621,22 +622,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="A22" sqref="A22:XFD22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.7109375" style="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="41" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="62.44140625" style="9" customWidth="1"/>
-    <col min="4" max="16384" width="8.6640625" style="7"/>
+    <col min="3" max="3" width="62.42578125" style="9" customWidth="1"/>
+    <col min="4" max="16384" width="8.7109375" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -647,7 +648,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="54" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>9</v>
       </c>
@@ -658,7 +659,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="54" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>8</v>
       </c>
@@ -669,7 +670,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="36" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>7</v>
       </c>
@@ -680,7 +681,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="90" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>15</v>
       </c>
@@ -691,7 +692,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="90" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>26</v>
       </c>
@@ -702,7 +703,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="54" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>29</v>
       </c>
@@ -713,7 +714,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="36" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>14</v>
       </c>
@@ -724,7 +725,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>10</v>
       </c>
@@ -735,7 +736,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>33</v>
       </c>
@@ -746,7 +747,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>36</v>
       </c>
@@ -757,7 +758,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>39</v>
       </c>
@@ -768,7 +769,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
         <v>40</v>
       </c>
@@ -779,7 +780,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
         <v>42</v>
       </c>
@@ -790,7 +791,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
         <v>43</v>
       </c>
@@ -801,7 +802,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
         <v>45</v>
       </c>
@@ -812,7 +813,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
         <v>47</v>
       </c>
@@ -823,13 +824,13 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
         <v>49</v>
       </c>
       <c r="B18" s="15"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
         <v>50</v>
       </c>
@@ -837,7 +838,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
         <v>62</v>
       </c>
@@ -845,7 +846,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
         <v>63</v>
       </c>
@@ -857,27 +858,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="54.109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="54.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="59.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="75.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="40.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="59.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="75.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="40.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="27" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="1"/>
+    <col min="9" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -899,7 +900,7 @@
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
@@ -910,7 +911,7 @@
       <c r="F2" s="6"/>
       <c r="G2" s="5"/>
     </row>
-    <row r="3" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>59</v>
       </c>
@@ -931,7 +932,7 @@
       </c>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>60</v>
       </c>
@@ -952,7 +953,7 @@
       </c>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>61</v>
       </c>
@@ -973,7 +974,7 @@
       </c>
       <c r="G5" s="5"/>
     </row>
-    <row r="6" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13"/>
       <c r="B6" s="13"/>
       <c r="C6" s="2"/>
@@ -981,7 +982,7 @@
       <c r="F6" s="6"/>
       <c r="G6" s="5"/>
     </row>
-    <row r="7" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13"/>
       <c r="B7" s="13"/>
       <c r="C7" s="2"/>
@@ -990,7 +991,7 @@
       <c r="F7" s="13"/>
       <c r="G7" s="5"/>
     </row>
-    <row r="8" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13"/>
       <c r="B8" s="13"/>
       <c r="C8" s="2"/>
@@ -999,7 +1000,7 @@
       <c r="F8" s="13"/>
       <c r="G8" s="5"/>
     </row>
-    <row r="9" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13"/>
       <c r="B9" s="13"/>
       <c r="C9" s="2"/>
@@ -1008,7 +1009,7 @@
       <c r="F9" s="13"/>
       <c r="G9" s="5"/>
     </row>
-    <row r="10" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13"/>
       <c r="B10" s="13"/>
       <c r="C10" s="2"/>
@@ -1017,23 +1018,23 @@
       <c r="F10" s="13"/>
       <c r="G10" s="5"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="13"/>
       <c r="B11" s="12"/>
       <c r="D11" s="12"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="13"/>
       <c r="B12" s="12"/>
       <c r="D12" s="14"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>
       <c r="B13" s="13"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
     </row>
   </sheetData>
